--- a/RUDN/Importance/Varible_muatal_in_Eastern Asia.xlsx
+++ b/RUDN/Importance/Varible_muatal_in_Eastern Asia.xlsx
@@ -121,21 +121,21 @@
     <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
     <t>Population ages 60-64, male (% of male population)</t>
   </si>
   <si>
@@ -244,15 +244,15 @@
     <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
     <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
     <t>Male population 45-49</t>
   </si>
   <si>
@@ -358,27 +358,27 @@
     <t>Age population, age 11, female, interpolated</t>
   </si>
   <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
     <t>Forest area (sq. km)</t>
   </si>
   <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
     <t>Female population 05-09</t>
   </si>
   <si>
@@ -436,16 +436,19 @@
     <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
     <t>Age population, age 24, male, interpolated</t>
   </si>
   <si>
     <t>Female population 15-19</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
     <t>Male population 15-19</t>
@@ -454,9 +457,6 @@
     <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Age population, age 15, female, interpolated</t>
   </si>
   <si>
@@ -472,12 +472,12 @@
     <t>Age population, age 14, male, interpolated</t>
   </si>
   <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Age population, age 24, female, interpolated</t>
   </si>
   <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Age population, age 17, female, interpolated</t>
   </si>
   <si>
@@ -511,48 +511,48 @@
     <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
     <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
     <t>Male population 20-24</t>
   </si>
   <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
     <t>Mortality rate, adult, female (per 1,000 female adults)</t>
   </si>
   <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
     <t>Rural population</t>
   </si>
   <si>
     <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
     <t>Time required to start a business, male (days)</t>
   </si>
   <si>
     <t>Time required to start a business, female (days)</t>
   </si>
   <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 22, female, interpolated</t>
   </si>
   <si>
@@ -580,24 +580,24 @@
     <t>Net official development assistance and official aid received (current US$)</t>
   </si>
   <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
     <t>GDP (current US$)</t>
   </si>
   <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
     <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
-    <t>Net ODA received per capita (current US$)</t>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
     <t>Population ages 30-34, female (% of female population)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
     <t>People using safely managed sanitation services (% of population)</t>
   </si>
   <si>
@@ -622,18 +622,18 @@
     <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
   </si>
   <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
     <t>Population ages 30-34, male (% of male population)</t>
   </si>
   <si>
@@ -649,12 +649,12 @@
     <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
     <t>Wage and salaried workers, male (% of male employment)</t>
   </si>
   <si>
-    <t>Number of people who are undernourished</t>
-  </si>
-  <si>
     <t>Vulnerable employment, male (% of male employment)</t>
   </si>
   <si>
@@ -664,19 +664,22 @@
     <t>Own-account workers, male (% of males employed)</t>
   </si>
   <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
     <t>Vulnerable employment, total (% of total employment)</t>
   </si>
   <si>
     <t>Vulnerable employment, female (% of female employment)</t>
   </si>
   <si>
-    <t>Health expenditure, total (current US$)</t>
+    <t>Population ages 15-64, male (% of total)</t>
   </si>
   <si>
     <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
   </si>
   <si>
-    <t>Population ages 15-64, male (% of total)</t>
+    <t>Employment in agriculture, male (% of male employment)</t>
   </si>
   <si>
     <t>Own-account workers, female (% of females employed)</t>
@@ -685,9 +688,6 @@
     <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
     <t>Number of maternal deaths</t>
   </si>
   <si>
@@ -706,117 +706,117 @@
     <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
     <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
     <t>Forest area (% of land area)</t>
   </si>
   <si>
     <t>People using basic drinking water services, rural (% of rural population)</t>
   </si>
   <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities (% of population with access)</t>
   </si>
   <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
     <t>People using basic sanitation services (% of population)</t>
   </si>
   <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
     <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
     <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
     <t>Unemployment, female (% of female labor force) (national estimate)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+    <t>Contributing family workers, female (% of female employment)</t>
   </si>
   <si>
     <t>Contributing family workers, total (% of total employment)</t>
   </si>
   <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
     <t>Contributing family workers, male (% of male employment)</t>
   </si>
   <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
     <t>People practicing open defecation, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
     <t>Total bilateral sector allocable ODA commitments (current US$)</t>
   </si>
   <si>
+    <t>Net ODA provided, total (constant 2015 US$)</t>
+  </si>
+  <si>
     <t>Children out of school, primary, female</t>
   </si>
   <si>
-    <t>Net ODA provided, total (constant 2015 US$)</t>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
     <t>Primary education, teachers (% female)</t>
   </si>
   <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
     <t>Tertiary education, academic staff (% female)</t>
   </si>
   <si>
@@ -829,58 +829,73 @@
     <t>Net ODA provided to the least developed countries (current US$)</t>
   </si>
   <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Self-employed, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Self-employed, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>Self-employed, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
     <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
     <t>Tuberculosis case detection rate (all forms)</t>
   </si>
   <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
+    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
   </si>
   <si>
     <t>School enrollment, primary, female (% net)</t>
   </si>
   <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
     <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
   </si>
   <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Self-employed, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Self-employed, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Self-employed, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (current US$)</t>
   </si>
   <si>
     <t>People using basic sanitation services, rural (% of rural population)</t>
@@ -889,61 +904,52 @@
     <t>School enrollment, tertiary, female (% gross)</t>
   </si>
   <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
     <t>Total debt service (% of exports of goods, services and primary income)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (current US$)</t>
-  </si>
-  <si>
     <t>Gross graduation ratio, tertiary, female (%)</t>
   </si>
   <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
     <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
   </si>
   <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
     <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
   </si>
   <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>Prevalence of undernourishment (% of population)</t>
   </si>
   <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
     <t>Net ODA received (% of GNI)</t>
   </si>
   <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
     <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>School enrollment, primary (% net)</t>
@@ -952,12 +958,6 @@
     <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Agricultural support estimate (% of GDP)</t>
   </si>
   <si>
@@ -967,27 +967,27 @@
     <t>Gross graduation ratio, tertiary, male (%)</t>
   </si>
   <si>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
     <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
   </si>
   <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
-  </si>
-  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
   </si>
   <si>
@@ -1009,45 +1009,45 @@
     <t>Lower secondary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
     <t>School enrollment, tertiary (% gross)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Low-birthweight babies (% of births)</t>
+  </si>
+  <si>
+    <t>Pregnant women receiving prenatal care (%)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
   </si>
   <si>
     <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Low-birthweight babies (% of births)</t>
-  </si>
-  <si>
-    <t>Pregnant women receiving prenatal care (%)</t>
-  </si>
-  <si>
     <t>Health expenditure, private (% of total health expenditure)</t>
   </si>
   <si>
@@ -1060,12 +1060,12 @@
     <t>Government expenditure per student, primary (% of GDP per capita)</t>
   </si>
   <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
     <t>Public spending on education, total (% of GDP)</t>
   </si>
   <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
     <t>GDP growth (annual %)</t>
   </si>
   <si>
@@ -1078,84 +1078,84 @@
     <t>Improved water source (% of population with access)</t>
   </si>
   <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
     <t>Persistence to last grade of primary, male (% of cohort)</t>
   </si>
   <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
     <t>Persistence to grade 5, female (% of cohort)</t>
   </si>
   <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
   </si>
   <si>
     <t>Employers, female (% of female employment)</t>
   </si>
   <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
     <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
     <t>Bilateral ODA commitments that is untied (current US$)</t>
   </si>
   <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
     <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
   </si>
   <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
     <t>School enrollment, secondary, male (% net)</t>
   </si>
   <si>
     <t>School enrollment, secondary, female (% net)</t>
   </si>
   <si>
+    <t>Total bilateral ODA commitments (current US$)</t>
+  </si>
+  <si>
     <t>Improved water source, urban (% of urban population with access)</t>
   </si>
   <si>
-    <t>Total bilateral ODA commitments (current US$)</t>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
   </si>
   <si>
     <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
   </si>
   <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
     <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
@@ -1180,24 +1180,24 @@
     <t>Secondary education, teachers (% female)</t>
   </si>
   <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
     <t>Progression to secondary school, male (%)</t>
   </si>
   <si>
-    <t>Progression to secondary school, female (%)</t>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
   </si>
   <si>
     <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
   </si>
   <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+    <t>Hospital beds (per 1,000 people)</t>
   </si>
   <si>
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
     <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
   </si>
   <si>
@@ -1222,27 +1222,27 @@
     <t>School enrollment, secondary, female (% gross)</t>
   </si>
   <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
     <t>Survival to age 65, female (% of cohort)</t>
   </si>
   <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
   </si>
   <si>
     <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
+    <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
     <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
     <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
@@ -1255,64 +1255,64 @@
     <t>People practicing open defecation (% of population)</t>
   </si>
   <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
     <t>School enrollment, primary, male (% gross)</t>
   </si>
   <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
     <t>School enrollment, primary (% gross)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
     <t>School enrollment, primary, female (% gross)</t>
   </si>
   <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
+    <t>Primary education, pupils (% female)</t>
   </si>
   <si>
     <t>School enrollment, primary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>Primary education, pupils (% female)</t>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
   </si>
   <si>
     <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
   </si>
   <si>
     <t>Fertility rate, total (births per woman)</t>
   </si>
   <si>
     <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
     <t>Region_code</t>
@@ -1916,7 +1916,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.544486306534696</v>
+        <v>1.548218354909602</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1972,7 +1972,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.515591557104232</v>
+        <v>1.515154725417401</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1980,7 +1980,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.515154725417401</v>
+        <v>1.511802059564735</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1988,7 +1988,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.511802059564735</v>
+        <v>1.506625556173946</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1996,7 +1996,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.506625556173946</v>
+        <v>1.504660325637287</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2004,7 +2004,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.504660325637287</v>
+        <v>1.50289314440582</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2196,7 +2196,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.380066334971867</v>
+        <v>1.384034588940121</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2300,7 +2300,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.337742676506023</v>
+        <v>1.336272364392182</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2308,7 +2308,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1.336272364392182</v>
+        <v>1.331591902288022</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2316,7 +2316,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.331591902288022</v>
+        <v>1.329806168569516</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2412,7 +2412,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.306293183520144</v>
+        <v>1.304128681355642</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2604,7 +2604,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1.261956279798029</v>
+        <v>1.261758032454152</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2612,7 +2612,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1.261758032454152</v>
+        <v>1.260912189541415</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2620,7 +2620,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1.260912189541415</v>
+        <v>1.259982691393097</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2628,7 +2628,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1.259982691393097</v>
+        <v>1.256345677322638</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2636,7 +2636,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.256345677322638</v>
+        <v>1.256046406311854</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2644,7 +2644,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1.256046406311854</v>
+        <v>1.256023743789191</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2652,7 +2652,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1.256023743789191</v>
+        <v>1.254019771861521</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2764,7 +2764,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.228606892562816</v>
+        <v>1.230007452786906</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2812,7 +2812,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1.188012140505584</v>
+        <v>1.189464212226887</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2820,7 +2820,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.187246182104778</v>
+        <v>1.189464212226887</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2828,7 +2828,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1.184702307464982</v>
+        <v>1.188012140505584</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2836,7 +2836,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1.18152770429038</v>
+        <v>1.187246182104778</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2844,7 +2844,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1.180521538180342</v>
+        <v>1.184810004001251</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2852,7 +2852,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1.178253005968744</v>
+        <v>1.180521538180342</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2860,7 +2860,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1.176079845271092</v>
+        <v>1.178253005968744</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2908,7 +2908,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1.156781466417767</v>
+        <v>1.16146800208782</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2916,7 +2916,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1.156706097325915</v>
+        <v>1.156781466417767</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2988,7 +2988,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>1.10108453880188</v>
+        <v>1.102572634039976</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3012,7 +3012,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>1.08761871347176</v>
+        <v>1.087337268267293</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3020,7 +3020,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1.087337268267293</v>
+        <v>1.079682205535252</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3036,7 +3036,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>1.063314036617168</v>
+        <v>1.062573273015689</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3044,7 +3044,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1.062573273015689</v>
+        <v>1.062114511662901</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3052,7 +3052,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1.062114511662901</v>
+        <v>1.061620533311427</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3060,7 +3060,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1.061620533311427</v>
+        <v>1.060161064588804</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3068,7 +3068,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1.060161064588804</v>
+        <v>1.057697434031538</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3076,7 +3076,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>1.057697434031538</v>
+        <v>1.053676848408551</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3100,7 +3100,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1.03904422877119</v>
+        <v>1.036161010662464</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3108,7 +3108,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>1.03904422877119</v>
+        <v>1.035642868226972</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3116,7 +3116,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1.036161010662464</v>
+        <v>1.035642868226972</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3196,7 +3196,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.9588205503332254</v>
+        <v>0.9590992424088127</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3204,7 +3204,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.9586113670337089</v>
+        <v>0.9588205503332254</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3220,7 +3220,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.9409807206623479</v>
+        <v>0.950674859097201</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3228,7 +3228,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.9346764429860137</v>
+        <v>0.9417036410217294</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3236,7 +3236,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.930266566191797</v>
+        <v>0.9409807206623479</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3308,7 +3308,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.8619734518725741</v>
+        <v>0.8580051979043202</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3324,7 +3324,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.8540369439360662</v>
+        <v>0.8497446747165287</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3332,7 +3332,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.8497446747165287</v>
+        <v>0.8480845629836853</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3356,7 +3356,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.780178469121652</v>
+        <v>0.7705412809130354</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3372,7 +3372,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.7591682881587223</v>
+        <v>0.7512317802222144</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3380,7 +3380,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.750650595032576</v>
+        <v>0.7469074097399764</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3388,7 +3388,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.7469074097399764</v>
+        <v>0.742714087096068</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3396,7 +3396,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.746149481721755</v>
+        <v>0.738212973785247</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3404,7 +3404,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.7451057455138216</v>
+        <v>0.7371692375773136</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3412,7 +3412,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.7437058726991982</v>
+        <v>0.7357693647626902</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3420,7 +3420,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.7363198627396593</v>
+        <v>0.7293857614190558</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3428,7 +3428,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.7309000632409123</v>
+        <v>0.7283833548031513</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3436,7 +3436,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.7293857614190558</v>
+        <v>0.7229635553044043</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3444,7 +3444,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.7251234154861576</v>
+        <v>0.7214927656840122</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3452,7 +3452,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.7214927656840122</v>
+        <v>0.7171869075496495</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3460,7 +3460,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.7174908252767206</v>
+        <v>0.71087297001309</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3468,7 +3468,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.7148191302121885</v>
+        <v>0.7095543173402126</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3476,7 +3476,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.71087297001309</v>
+        <v>0.708373723766782</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3484,7 +3484,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.7091419937722372</v>
+        <v>0.7012054858357293</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3548,7 +3548,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.6671008789440809</v>
+        <v>0.659164371007573</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3556,7 +3556,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.6620578700632076</v>
+        <v>0.6541213621266997</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3564,7 +3564,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.6592191454070593</v>
+        <v>0.6522159959246423</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3572,7 +3572,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.6551716289645848</v>
+        <v>0.6512826374705514</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3580,7 +3580,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.6522159959246423</v>
+        <v>0.6504156974576767</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3588,7 +3588,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.6504156974576767</v>
+        <v>0.6485841956261753</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3668,7 +3668,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.6485841956261753</v>
+        <v>0.6472351210280769</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3684,7 +3684,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.6310912069498574</v>
+        <v>0.6299721601206227</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3700,7 +3700,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.6299721601206227</v>
+        <v>0.6270916063305236</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3708,7 +3708,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.6299007307593812</v>
+        <v>0.6263658109618713</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3716,7 +3716,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.6299007307593812</v>
+        <v>0.6231546990133494</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3724,7 +3724,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.6299007307593812</v>
+        <v>0.6219642228228732</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3732,7 +3732,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.6299007307593812</v>
+        <v>0.6219642228228732</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3740,7 +3740,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.6299007307593812</v>
+        <v>0.6219642228228732</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3748,7 +3748,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.6299007307593812</v>
+        <v>0.6219642228228732</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3756,7 +3756,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.6270916063305236</v>
+        <v>0.6219642228228732</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3764,7 +3764,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.6270597782246932</v>
+        <v>0.6219642228228732</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3772,7 +3772,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.6263658109618713</v>
+        <v>0.6191232702881853</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3788,7 +3788,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.6060219489308181</v>
+        <v>0.6050174874929113</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3796,7 +3796,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.6050174874929113</v>
+        <v>0.6036409965498655</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3804,7 +3804,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.6046123489531781</v>
+        <v>0.6024286725750088</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3812,7 +3812,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.6024286725750088</v>
+        <v>0.5976855998038808</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3820,7 +3820,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.5976855998038808</v>
+        <v>0.5932744804724526</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3828,7 +3828,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.5935211520751522</v>
+        <v>0.5855846441386441</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3836,7 +3836,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.5927684586109858</v>
+        <v>0.5848319506744779</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3844,7 +3844,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.5801450863636437</v>
+        <v>0.5831212768398344</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3860,7 +3860,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.5755002357942283</v>
+        <v>0.5767048269220003</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3868,7 +3868,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.5755002357942283</v>
+        <v>0.5736175382358193</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3876,7 +3876,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.5736175382358193</v>
+        <v>0.5716334112516919</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3884,7 +3884,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.571633411251692</v>
+        <v>0.5716334112516919</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3892,7 +3892,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.571633411251692</v>
+        <v>0.5716334112516919</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3900,7 +3900,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.571633411251692</v>
+        <v>0.5716334112516919</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3908,7 +3908,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.571633411251692</v>
+        <v>0.5716334112516919</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3924,7 +3924,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.5716334112516919</v>
+        <v>0.5687683189854924</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3932,7 +3932,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.5716334112516919</v>
+        <v>0.5675637278577204</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3940,7 +3940,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.5716334112516919</v>
+        <v>0.5675637278577204</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3948,7 +3948,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.5716334112516919</v>
+        <v>0.5651646556845624</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3956,7 +3956,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.5716334112516919</v>
+        <v>0.563696903315184</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3964,7 +3964,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.5700214518175726</v>
+        <v>0.563696903315184</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3972,7 +3972,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.5700214518175726</v>
+        <v>0.563696903315184</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3980,7 +3980,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.5651646556845624</v>
+        <v>0.563696903315184</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4004,7 +4004,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.5565889549728524</v>
+        <v>0.5555193269033509</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4012,7 +4012,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.5558837624540254</v>
+        <v>0.5538522046983401</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4020,7 +4020,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.555836331682467</v>
+        <v>0.5502009672582884</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4028,7 +4028,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.5555193269033509</v>
+        <v>0.5502009672582884</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4036,7 +4036,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.5536177612252611</v>
+        <v>0.5492534763717569</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4044,7 +4044,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.5502009672582884</v>
+        <v>0.5486524470363445</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4052,7 +4052,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.5502009672582884</v>
+        <v>0.5462465742454088</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4060,7 +4060,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.5492534763717569</v>
+        <v>0.5456812532887532</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4076,7 +4076,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.5452429688042761</v>
+        <v>0.5442442528002953</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4084,7 +4084,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.5442442528002953</v>
+        <v>0.5387801529842833</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4092,7 +4092,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.5424893968360274</v>
+        <v>0.5387555003284361</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4100,7 +4100,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.5397116190582496</v>
+        <v>0.5387555003284361</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4108,7 +4108,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.5387801529842833</v>
+        <v>0.5373064608677682</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4116,7 +4116,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.5387555003284361</v>
+        <v>0.5345528888995195</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4124,7 +4124,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.5387555003284361</v>
+        <v>0.5341296740828774</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4132,7 +4132,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.5358227301693606</v>
+        <v>0.5317751111217417</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4140,7 +4140,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.5358227301693606</v>
+        <v>0.5278862222328526</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4148,7 +4148,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.5358227301693606</v>
+        <v>0.5278862222328526</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4156,7 +4156,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.5358227301693606</v>
+        <v>0.5278862222328526</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4164,7 +4164,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.5341296740828774</v>
+        <v>0.5278862222328526</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4172,7 +4172,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.5314800850193504</v>
+        <v>0.5266940937388469</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4180,7 +4180,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.5304880215272867</v>
+        <v>0.5266940937388469</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4188,7 +4188,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.5286782207229739</v>
+        <v>0.5235435770828425</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4196,7 +4196,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.5286782207229739</v>
+        <v>0.5225515135907788</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4284,7 +4284,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.499326326079877</v>
+        <v>0.4913898181433691</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4292,7 +4292,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.499326326079877</v>
+        <v>0.4913898181433691</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4308,7 +4308,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.4896948854386751</v>
+        <v>0.4817583775021672</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4316,7 +4316,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.4749026066988953</v>
+        <v>0.4709343527306409</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4340,7 +4340,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.4671112575498451</v>
+        <v>0.4669283195726845</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4364,7 +4364,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.4669283195726845</v>
+        <v>0.4660797982072693</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4372,7 +4372,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.4660797982072693</v>
+        <v>0.4574740693412285</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4380,7 +4380,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.4629237083256479</v>
+        <v>0.4480998284415854</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4388,7 +4388,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.4565630648983512</v>
+        <v>0.4469258766897346</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4396,7 +4396,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.4480998284415854</v>
+        <v>0.443879971112485</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4404,7 +4404,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.4450833955964582</v>
+        <v>0.4425679367191355</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4412,7 +4412,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.443879971112485</v>
+        <v>0.4411650349023837</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4420,7 +4420,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.4425679367191355</v>
+        <v>0.4405447165471286</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4428,7 +4428,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.4411650349023837</v>
+        <v>0.4361773260787412</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4436,7 +4436,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.4405447165471286</v>
+        <v>0.4286811224023896</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4500,7 +4500,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.4034873294897416</v>
+        <v>0.3955508215532335</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4508,7 +4508,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.4034873294897416</v>
+        <v>0.3955508215532335</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4516,7 +4516,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.4005111712376601</v>
+        <v>0.3925746633011522</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4564,7 +4564,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.3874653958652036</v>
+        <v>0.3869263407126904</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4572,7 +4572,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.3874653958652036</v>
+        <v>0.3809645408801208</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4580,7 +4580,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.3869263407126904</v>
+        <v>0.3809261779506379</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4588,7 +4588,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.3809645408801208</v>
+        <v>0.3795288879286955</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4596,7 +4596,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.3809261779506379</v>
+        <v>0.3795288879286955</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4604,7 +4604,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.376288855754533</v>
+        <v>0.3733675626211133</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4612,7 +4612,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.3733675626211133</v>
+        <v>0.3716282398986264</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4636,7 +4636,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.3716282398986264</v>
+        <v>0.3683523478180253</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4684,7 +4684,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.3348970978760912</v>
+        <v>0.3313933034177632</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4692,7 +4692,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.3313933034177632</v>
+        <v>0.3269605899395833</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4756,7 +4756,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.2935657426602343</v>
+        <v>0.2959466950411866</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4764,7 +4764,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.2935657426602343</v>
+        <v>0.2959466950411866</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4772,7 +4772,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.2880210952996436</v>
+        <v>0.2800845873631357</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4828,7 +4828,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.1959343096135595</v>
+        <v>0.1949423029438107</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4836,7 +4836,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.1949423029438107</v>
+        <v>0.1839529378107594</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4844,7 +4844,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.1908065000179648</v>
+        <v>0.1828699920814569</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4852,7 +4852,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.1908065000179648</v>
+        <v>0.1828699920814569</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4860,7 +4860,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.1892508319487021</v>
+        <v>0.1813143240121942</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4884,7 +4884,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.1542584726830671</v>
+        <v>0.157801556583294</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -4892,7 +4892,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.1457602782119662</v>
+        <v>0.1493033621121931</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -4900,7 +4900,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.1437021538350016</v>
+        <v>0.1472452377352285</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -4908,7 +4908,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.1221769270583202</v>
+        <v>0.1149166862367705</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -4916,7 +4916,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.1149166862367705</v>
+        <v>0.1142404191218123</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -4924,7 +4924,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.1028554676804341</v>
+        <v>0.1063985515806609</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -4932,7 +4932,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.1028554676804341</v>
+        <v>0.1063985515806609</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -4940,7 +4940,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.1028554676804341</v>
+        <v>0.1063985515806609</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -4948,7 +4948,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.1028554676804341</v>
+        <v>0.1063985515806609</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -4956,7 +4956,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.1028554676804341</v>
+        <v>0.1063985515806609</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -4964,7 +4964,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.09733089940231543</v>
+        <v>0.08939439146580752</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -4972,7 +4972,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.09074158544137734</v>
+        <v>0.08280507750486943</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -4988,7 +4988,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.07099928608942041</v>
+        <v>0.0630627781529125</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -4996,7 +4996,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.06637654271388049</v>
+        <v>0.05853290875680139</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5004,7 +5004,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.06123963946773392</v>
+        <v>0.0542488685213427</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5012,7 +5012,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.05853290875680139</v>
+        <v>0.05404661074109129</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5020,7 +5020,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.05833657646614832</v>
+        <v>0.05398706743176529</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5028,7 +5028,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.0542488685213427</v>
+        <v>0.05111442643988484</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5036,7 +5036,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.05398706743176529</v>
+        <v>0.04901237349749588</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -5044,7 +5044,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.05111442643988484</v>
+        <v>0.04901237349749588</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5076,7 +5076,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.04901237349749588</v>
+        <v>0.04890970749494472</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5084,7 +5084,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.04901237349749588</v>
+        <v>0.04600664449335912</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -5092,7 +5092,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.04428491841289794</v>
+        <v>0.03195498644010875</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5100,7 +5100,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.04428491841289794</v>
+        <v>0.03195498644010875</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5108,7 +5108,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.0338843896264911</v>
+        <v>0.02846734261839856</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -5116,7 +5116,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.02846734261839856</v>
+        <v>0.02424720141787451</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5124,7 +5124,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.01411633759194753</v>
+        <v>0.01324351231644871</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5132,7 +5132,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.01411633759194753</v>
+        <v>0.006179829655439617</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5140,7 +5140,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.01411633759194753</v>
+        <v>0.006179829655439617</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -5148,7 +5148,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.01324351231644871</v>
+        <v>0.006179829655439617</v>
       </c>
     </row>
     <row r="435" spans="1:2">
